--- a/JIRA/Planilha Sprint 236.xlsx
+++ b/JIRA/Planilha Sprint 236.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEROTTOMESQUITAGIOVA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4CDDCB-4599-45AC-926F-BF3EDF6D7264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E0FFCA-06CA-4107-93C7-590824B7245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2175" windowWidth="28800" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
   <si>
     <t>Projeto</t>
   </si>
@@ -125,40 +125,31 @@
     <t>Caso de Uso</t>
   </si>
   <si>
-    <t>TRE-975</t>
-  </si>
-  <si>
-    <t>TRE-976</t>
-  </si>
-  <si>
-    <t>TRE-977</t>
-  </si>
-  <si>
     <t>Desenvolvimento</t>
   </si>
   <si>
     <t>Implementação</t>
   </si>
   <si>
-    <t>TRE-978</t>
-  </si>
-  <si>
     <t>Testes</t>
   </si>
   <si>
     <t>Teste Unitário</t>
   </si>
   <si>
-    <t>TRE-982</t>
-  </si>
-  <si>
     <t>Deploy</t>
   </si>
   <si>
     <t>Demonstração-Aceite</t>
   </si>
   <si>
-    <t>TRE-983</t>
+    <t>REQ0349360</t>
+  </si>
+  <si>
+    <t>SCTASK0501211</t>
+  </si>
+  <si>
+    <t>Alternativas para ZINTERFACEBI</t>
   </si>
   <si>
     <t>Pessoas</t>
@@ -167,18 +158,12 @@
     <t>UUID</t>
   </si>
   <si>
-    <t>API Token</t>
-  </si>
-  <si>
     <t>NOVO DESENVOLVIMENTO</t>
   </si>
   <si>
     <t>Análise Funcional</t>
   </si>
   <si>
-    <t>Basic Z2lvdmFuaS5tZXNxdWl0YUB0a2VsZXZhdG9yLmNvbTpBVEFUVDN4RmZHRjB4eldURlhnSUdYWjdFZjJyY2JCR3RKc0kyQzFMT1RRWERWRGhtcWlobE1mMjducFJ3WU5Za1dtY0x6dTM4T3lOU2Ixd1ZHVW1MQnBKRTB1cjhiTkx5UllZNDlJaXQxSmIzdFhqYmVqQWExVzZlbXNWdnhjaW5XOWVXOEQwTVE2eWx5eDJhbUtYQW5xaExUSzBUTDg2UEUzX0tCMFdpU1FLcl9WOXZmYUQ2VHM9MDk4QUIzQkE=</t>
-  </si>
-  <si>
     <t>Luis Henrique Petkovicz</t>
   </si>
   <si>
@@ -225,27 +210,16 @@
   </si>
   <si>
     <t>Plano de Testes</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,18 +239,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -320,68 +288,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <border>
         <left/>
@@ -576,6 +494,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -840,53 +775,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela6" displayName="Tabela6" ref="A1:T5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela6" displayName="Tabela6" ref="A1:T5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:T5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Projeto" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Request" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Módulo" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Usuário Projeto" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PO" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="UUID PO" dataDxfId="24">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Projeto" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Request" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Módulo" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Usuário Projeto" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PO" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="UUID PO" dataDxfId="21">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Recurso" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="UUID Recurso" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Recurso" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="UUID Recurso" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Épico" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Estória" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tarefa" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Etapa" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Horas" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Pontos" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="TicketE" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="TicketS" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="TicketT" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Épico" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Estória" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Tarefa" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Etapa" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Horas" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Pontos" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="TicketE" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="TicketS" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="TicketT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B2:B6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tipo" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tipo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="D2:D12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Etapa" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Etapa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -903,16 +838,6 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="UUID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela8" displayName="Tabela8" ref="I2:I3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="I2:I3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="API Token" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1233,36 +1158,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1233,7 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1324,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1370,23 +1295,17 @@
       <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>68</v>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1427,28 +1346,22 @@
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="7">
+        <v>35</v>
+      </c>
+      <c r="P3">
         <v>4</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1489,28 +1402,22 @@
         <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="7">
+        <v>37</v>
+      </c>
+      <c r="P4">
         <v>8</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1551,26 +1458,244 @@
         <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="7">
+        <v>39</v>
+      </c>
+      <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>34</v>
       </c>
-      <c r="S5" t="s">
+      <c r="O7" t="s">
         <v>35</v>
       </c>
-      <c r="T5" t="s">
-        <v>45</v>
-      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1583,26 +1708,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,21 +1734,18 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -1632,143 +1753,97 @@
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{6ec7f58a-8404-4877-b736-bea143f77ded}" enabled="1" method="Standard" siteId="{84d9a216-e285-4aac-b163-0dfd0c074546}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>
--- a/JIRA/Planilha Sprint 236.xlsx
+++ b/JIRA/Planilha Sprint 236.xlsx
@@ -89,13 +89,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,25 +1032,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="24.85546875" customWidth="1" min="6" max="6"/>
-    <col width="40.5703125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="22.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="31.85546875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="32.7109375" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="24.85546875" customWidth="1" style="6" min="6" max="6"/>
+    <col width="40.5703125" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="22.7109375" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
+    <col width="31.85546875" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
+    <col width="32.7109375" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="6" min="14" max="14"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="6" min="15" max="15"/>
     <col width="8.28515625" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="18" max="19"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="17" max="17"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="18" max="19"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -1238,17 +1239,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>TRE-1192</t>
+          <t>TRE-1244</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>TRE-1193</t>
+          <t>TRE-1245</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TRE-1210</t>
+          <t>TRE-1246</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1337,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>TRE-1192</t>
+          <t>TRE-1244</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>TRE-1193</t>
+          <t>TRE-1245</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>TRE-1211</t>
+          <t>TRE-1249</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1435,17 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>TRE-1192</t>
+          <t>TRE-1244</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>TRE-1193</t>
+          <t>TRE-1245</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>TRE-1212</t>
+          <t>TRE-1251</t>
         </is>
       </c>
     </row>
@@ -1532,17 +1533,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>TRE-1192</t>
+          <t>TRE-1244</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>TRE-1193</t>
+          <t>TRE-1245</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TRE-1213</t>
+          <t>TRE-1252</t>
         </is>
       </c>
     </row>
@@ -1626,21 +1627,21 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>TRE-1201</t>
+          <t>TRE-1253</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>TRE-1202</t>
+          <t>TRE-1254</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>TRE-1214</t>
+          <t>TRE-1255</t>
         </is>
       </c>
     </row>
@@ -1724,21 +1725,21 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>TRE-1201</t>
+          <t>TRE-1253</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>TRE-1202</t>
+          <t>TRE-1254</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>TRE-1215</t>
+          <t>TRE-1256</t>
         </is>
       </c>
     </row>
@@ -1822,21 +1823,21 @@
         <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>TRE-1201</t>
+          <t>TRE-1253</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>TRE-1202</t>
+          <t>TRE-1254</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>TRE-1216</t>
+          <t>TRE-1260</t>
         </is>
       </c>
     </row>
@@ -1917,24 +1918,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>TRE-1201</t>
+          <t>TRE-1253</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>TRE-1202</t>
+          <t>TRE-1254</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>TRE-1217</t>
+          <t>TRE-1261</t>
         </is>
       </c>
     </row>
@@ -1961,14 +1962,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="2.28515625" customWidth="1" min="1" max="1"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="2.28515625" customWidth="1" min="3" max="3"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="2.28515625" customWidth="1" min="5" max="5"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="43.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="2.28515625" customWidth="1" min="8" max="8"/>
+    <col width="2.28515625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="2.28515625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="2.28515625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="43.42578125" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="2.28515625" customWidth="1" style="6" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1993,7 +1994,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.45" customHeight="1">
+    <row r="3" ht="14.45" customHeight="1" s="6">
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>NOVO DESENVOLVIMENTO</t>
@@ -2115,7 +2116,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1">
+    <row r="9" ht="14.45" customHeight="1" s="6">
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Caso de Teste</t>

--- a/JIRA/Planilha Sprint 236.xlsx
+++ b/JIRA/Planilha Sprint 236.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Parâmetros" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -36,7 +36,30 @@
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="0"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,20 +109,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
@@ -296,220 +332,220 @@
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color theme="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color theme="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -646,7 +682,7 @@
     <tableColumn id="2" name="Task" dataDxfId="26"/>
     <tableColumn id="3" name="Módulo" dataDxfId="25"/>
     <tableColumn id="4" name="Tipo" dataDxfId="24"/>
-    <tableColumn id="5" name="Usuário Projeto" dataDxfId="23"/>
+    <tableColumn id="5" name="Usuário Projeto" dataDxfId="23" dataCellStyle="Hiperlink"/>
     <tableColumn id="6" name="PO" dataDxfId="22"/>
     <tableColumn id="16" name="UUID PO" dataDxfId="21">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
@@ -1024,926 +1060,542 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.140625" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="24.85546875" customWidth="1" style="6" min="6" max="6"/>
-    <col width="40.5703125" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="22.7109375" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="31.85546875" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
-    <col width="32.7109375" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" style="6" min="14" max="14"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" style="6" min="15" max="15"/>
-    <col width="8.28515625" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="17" max="17"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="18" max="19"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="39.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="22.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="41.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="32.85546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="33.5703125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="20.28515625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="8.28515625" bestFit="1" customWidth="1" style="10" min="16" max="16"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="18" max="19"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Projeto</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Request</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Task</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Módulo</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Usuário Projeto</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>UUID PO</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Recurso</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>UUID Recurso</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Épico</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Estória</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Tarefa</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>Etapa</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="9" t="inlineStr">
         <is>
           <t>Horas</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="5" t="inlineStr">
         <is>
           <t>Pontos</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="5" t="inlineStr">
         <is>
           <t>TicketE</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="5" t="inlineStr">
         <is>
           <t>TicketS</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="5" t="inlineStr">
         <is>
           <t>TicketT</t>
         </is>
       </c>
     </row>
     <row r="2" customFormat="1" s="4">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>REQ0349359</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>SCTASK0501210</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>INTERFACE</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>ALTERAÇÃO</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>ensemble@thyssenkruppelevadores.com.br</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Giovani Perotto Mesquita</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>Regina Albanus</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Alternativas para ZINTERFACELOTE2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Estrutura de armazenamento no SAP</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Análise</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Caso de Uso</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRE-1244</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRE-1245</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>TRE-1246</t>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8147</t>
+        </is>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8148</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8149</t>
         </is>
       </c>
     </row>
     <row r="3" customFormat="1" s="4">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>REQ0349359</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>SCTASK0501210</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>INTERFACE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>ALTERAÇÃO</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>ensemble@thyssenkruppelevadores.com.br</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Giovani Perotto Mesquita</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Regina Albanus</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K3" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Alternativas para ZINTERFACELOTE2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Estrutura de armazenamento no SAP</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Desenvolvimento</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Implementação</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRE-1244</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRE-1245</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TRE-1249</t>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8147</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8148</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8150</t>
         </is>
       </c>
     </row>
     <row r="4" customFormat="1" s="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>REQ0349359</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>SCTASK0501210</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>INTERFACE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>ALTERAÇÃO</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>ensemble@thyssenkruppelevadores.com.br</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>Giovani Perotto Mesquita</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Regina Albanus</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Alternativas para ZINTERFACELOTE2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Estrutura de armazenamento no SAP</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Testes</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Teste Unitário</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRE-1244</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRE-1245</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>TRE-1251</t>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8147</t>
+        </is>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8148</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8151</t>
         </is>
       </c>
     </row>
     <row r="5" customFormat="1" s="4">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>ENS</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>REQ0349359</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>SCTASK0501210</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>INTERFACE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>ALTERAÇÃO</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>ensemble@thyssenkruppelevadores.com.br</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>Giovani Perotto Mesquita</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Regina Albanus</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" s="5">
+        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Alternativas para ZINTERFACELOTE2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Estrutura de armazenamento no SAP</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Demonstração-Aceite</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TRE-1244</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>TRE-1245</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>TRE-1252</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" customFormat="1" s="4">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>REQ0349360</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SCTASK0501211</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>INTERFACE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ALTERAÇÃO</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ensemble@thyssenkruppelevadores.com.br</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Giovani Perotto Mesquita</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Regina Albanus</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Alternativas para ZINTERFACEBI</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Estrutura de armazenamento no SAP</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Análise</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Caso de Uso</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TRE-1253</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>TRE-1254</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>TRE-1255</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" customFormat="1" s="4">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>REQ0349360</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SCTASK0501211</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>INTERFACE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ALTERAÇÃO</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ensemble@thyssenkruppelevadores.com.br</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Giovani Perotto Mesquita</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Regina Albanus</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Alternativas para ZINTERFACEBI</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Estrutura de armazenamento no SAP</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Desenvolvimento</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Implementação</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>TRE-1253</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>TRE-1254</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>TRE-1256</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" customFormat="1" s="4">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>REQ0349360</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SCTASK0501211</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>INTERFACE</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ALTERAÇÃO</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ensemble@thyssenkruppelevadores.com.br</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Giovani Perotto Mesquita</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Regina Albanus</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Alternativas para ZINTERFACEBI</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Estrutura de armazenamento no SAP</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Testes</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Teste Unitário</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>TRE-1253</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>TRE-1254</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>TRE-1260</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" customFormat="1" s="4">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TRE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>REQ0349360</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SCTASK0501211</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>INTERFACE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ALTERAÇÃO</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ensemble@thyssenkruppelevadores.com.br</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Giovani Perotto Mesquita</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Regina Albanus</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Alternativas para ZINTERFACEBI</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Estrutura de armazenamento no SAP</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Deploy</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Demonstração-Aceite</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>TRE-1253</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>TRE-1254</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>TRE-1261</t>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8147</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8148</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>ENS-8152</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1962,14 +1614,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="2.28515625" customWidth="1" style="6" min="1" max="1"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="2.28515625" customWidth="1" style="6" min="3" max="3"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="2.28515625" customWidth="1" style="6" min="5" max="5"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="43.42578125" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="2.28515625" customWidth="1" style="6" min="8" max="8"/>
+    <col width="2.28515625" customWidth="1" min="1" max="1"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="2.28515625" customWidth="1" min="3" max="3"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="2.28515625" customWidth="1" min="5" max="5"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="43.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="2.28515625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1994,7 +1646,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.45" customHeight="1" s="6">
+    <row r="3" ht="14.45" customHeight="1">
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>NOVO DESENVOLVIMENTO</t>
@@ -2116,7 +1768,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1" s="6">
+    <row r="9" ht="14.45" customHeight="1">
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Caso de Teste</t>

--- a/JIRA/Planilha Sprint 236.xlsx
+++ b/JIRA/Planilha Sprint 236.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -58,6 +58,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -113,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -132,6 +140,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,10 +1069,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1194,7 +1203,7 @@
     <row r="2" customFormat="1" s="4">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>TRE</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -1277,24 +1286,24 @@
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>ENS-8147</t>
+          <t>TRE-1339</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
-          <t>ENS-8148</t>
+          <t>TRE-1340</t>
         </is>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
-          <t>ENS-8149</t>
+          <t>TRE-1341</t>
         </is>
       </c>
     </row>
     <row r="3" customFormat="1" s="4">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>TRE</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -1375,24 +1384,24 @@
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>ENS-8147</t>
+          <t>TRE-1339</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>ENS-8148</t>
+          <t>TRE-1340</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
-          <t>ENS-8150</t>
+          <t>TRE-1343</t>
         </is>
       </c>
     </row>
     <row r="4" customFormat="1" s="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>TRE</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -1473,24 +1482,24 @@
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>ENS-8147</t>
+          <t>TRE-1339</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>ENS-8148</t>
+          <t>TRE-1340</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t>ENS-8151</t>
+          <t>TRE-1346</t>
         </is>
       </c>
     </row>
     <row r="5" customFormat="1" s="4">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>TRE</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -1571,19 +1580,22 @@
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>ENS-8147</t>
+          <t>TRE-1339</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
         <is>
-          <t>ENS-8148</t>
+          <t>TRE-1340</t>
         </is>
       </c>
       <c r="T5" s="5" t="inlineStr">
         <is>
-          <t>ENS-8152</t>
-        </is>
-      </c>
+          <t>TRE-1347</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="W6" s="14" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/JIRA/Planilha Sprint 236.xlsx
+++ b/JIRA/Planilha Sprint 236.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3780" yWindow="2175" windowWidth="28800" windowHeight="13305" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="1" state="visible" r:id="rId1"/>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>TRE-1339</t>
+          <t>TRE-1357</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
         <is>
-          <t>TRE-1340</t>
+          <t>TRE-1358</t>
         </is>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
-          <t>TRE-1341</t>
+          <t>TRE-1359</t>
         </is>
       </c>
     </row>
@@ -1384,17 +1384,17 @@
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>TRE-1339</t>
+          <t>TRE-1357</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>TRE-1340</t>
+          <t>TRE-1358</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
-          <t>TRE-1343</t>
+          <t>TRE-1362</t>
         </is>
       </c>
     </row>
@@ -1482,17 +1482,17 @@
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>TRE-1339</t>
+          <t>TRE-1357</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>TRE-1340</t>
+          <t>TRE-1358</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t>TRE-1346</t>
+          <t>TRE-1364</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1580,17 @@
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>TRE-1339</t>
+          <t>TRE-1357</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
         <is>
-          <t>TRE-1340</t>
+          <t>TRE-1358</t>
         </is>
       </c>
       <c r="T5" s="5" t="inlineStr">
         <is>
-          <t>TRE-1347</t>
+          <t>TRE-1365</t>
         </is>
       </c>
     </row>
